--- a/biology/Botanique/Euphorbia_dulcis/Euphorbia_dulcis.xlsx
+++ b/biology/Botanique/Euphorbia_dulcis/Euphorbia_dulcis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Euphorbe douce[2] (Euphorbia dulcis) est une espèce de plantes à fleurs de la famille des Euphorbiacées. C'est une plante herbacée présente en France.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Euphorbe douce (Euphorbia dulcis) est une espèce de plantes à fleurs de la famille des Euphorbiacées. C'est une plante herbacée présente en France.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est protégée dans le Nord-Pas-de-Calais[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est protégée dans le Nord-Pas-de-Calais.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Liste des sous-espèces, variétés et formes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 juillet 2013)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 juillet 2013) :
 Euphorbia dulcis L. (1753)
-Selon Tropicos                                           (15 juillet 2013)[5] (Attention liste brute contenant peut-être des synonymes) :
+Selon Tropicos                                           (15 juillet 2013) (Attention liste brute contenant peut-être des synonymes) :
 Euphorbia dulcis subsp. angulata (Jacq.) Rouy
 Euphorbia dulcis subsp. dulcis
 Euphorbia dulcis subsp. incompta (Ces.) Nyman
@@ -587,9 +603,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euphorbia dulcis subsp. incompta (syn. subsp. purpurata) est présente en Europe occidentale tandis que Euphorbia dulcis subsp. dulcis se trouve en Europe centrale et orientale[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euphorbia dulcis subsp. incompta (syn. subsp. purpurata) est présente en Europe occidentale tandis que Euphorbia dulcis subsp. dulcis se trouve en Europe centrale et orientale.
 </t>
         </is>
       </c>
@@ -618,11 +636,48 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>C'est une plante ornementale cultivée dans des situations ombragées sur sols argilo-calcaires frais mais bien drainés. Elle préfère une importante humidité atmosphérique.
-Cultivars
-Euphorbia dulcis cv. Chameleon</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante ornementale cultivée dans des situations ombragées sur sols argilo-calcaires frais mais bien drainés. Elle préfère une importante humidité atmosphérique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euphorbia_dulcis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphorbia_dulcis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cultivars</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Euphorbia dulcis cv. Chameleon</t>
         </is>
       </c>
     </row>
